--- a/Config File/EcommerceTestData.xlsx
+++ b/Config File/EcommerceTestData.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\Eclipse_Code\Framework\EcommerceProject\Config File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\MoinAutomation\Config File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87045E57-E070-438D-95C3-76F3D90447A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="10" windowWidth="14400" windowHeight="8170" xr2:uid="{04F61B95-F1B3-4C5F-8289-DC4FF5C181D6}"/>
+    <workbookView xWindow="345" yWindow="15" windowWidth="14400" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Email</t>
   </si>
@@ -42,28 +41,22 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Selenium1718@gmail.com</t>
-  </si>
-  <si>
-    <t>Selenium@1718</t>
-  </si>
-  <si>
-    <t>selenium77@gmail.com</t>
-  </si>
-  <si>
-    <t>Selenium9@gmail.com</t>
-  </si>
-  <si>
-    <t>Selenium9</t>
-  </si>
-  <si>
-    <t>selenium77</t>
+    <t>StoreUrl</t>
+  </si>
+  <si>
+    <t>Hikemoin1</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>123qwe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,59 +412,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05AD9BB-8555-4D96-ABBC-939033E837BA}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{6BDAFCFA-76E7-4BDC-8AC9-BDE7EFB6E6C9}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{F6C862E5-46FC-49C7-90BD-CD0C9E9FAAA8}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{DF7DE751-2B3A-457E-94B8-ACDB33EE9879}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{E879DF72-3119-42DD-8055-43CFB00E0C07}"/>
-    <hyperlink ref="B3" r:id="rId5" display="selenium@" xr:uid="{780AF7EE-3A6B-47DF-AD87-12D3D792AC23}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>